--- a/notebooks/dados/unicamp_graduacao_alunos.xlsx
+++ b/notebooks/dados/unicamp_graduacao_alunos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="68">
   <si>
     <t>curso</t>
   </si>
@@ -212,18 +212,6 @@
   </si>
   <si>
     <t>Tec. em Sistemas de Telecomunicações</t>
-  </si>
-  <si>
-    <t>Ciências da Terra – Geologia/Geografia</t>
-  </si>
-  <si>
-    <t>Tec. Ambiental</t>
-  </si>
-  <si>
-    <t>Tec. em Informática</t>
-  </si>
-  <si>
-    <t>Tec. em Telecomunicações</t>
   </si>
   <si>
     <t>(N)</t>
@@ -587,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -644,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>2017</v>
@@ -667,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>2018</v>
@@ -690,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -713,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2017</v>
@@ -736,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -759,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -782,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>2017</v>
@@ -805,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>2018</v>
@@ -828,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>2016</v>
@@ -851,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>2017</v>
@@ -874,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>2018</v>
@@ -897,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -920,7 +908,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>2017</v>
@@ -943,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>2018</v>
@@ -966,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>2016</v>
@@ -989,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>2017</v>
@@ -1012,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>2018</v>
@@ -1035,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>2016</v>
@@ -1058,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -1081,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>2018</v>
@@ -1104,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>2016</v>
@@ -1127,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -1150,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>2018</v>
@@ -1173,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -1196,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>2017</v>
@@ -1219,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <v>2018</v>
@@ -1242,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>2016</v>
@@ -1265,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30">
         <v>2017</v>
@@ -1288,7 +1276,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>2018</v>
@@ -1311,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>2016</v>
@@ -1334,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>2017</v>
@@ -1357,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>2018</v>
@@ -1380,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C35">
         <v>2016</v>
@@ -1403,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>2017</v>
@@ -1426,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>2018</v>
@@ -1449,7 +1437,7 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>2016</v>
@@ -1472,7 +1460,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C39">
         <v>2017</v>
@@ -1495,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C40">
         <v>2018</v>
@@ -1518,7 +1506,7 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>2016</v>
@@ -1541,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>2017</v>
@@ -1564,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>2018</v>
@@ -1587,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>2016</v>
@@ -1610,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>2017</v>
@@ -1633,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>2018</v>
@@ -1656,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>2016</v>
@@ -1679,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>2017</v>
@@ -1702,7 +1690,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>2018</v>
@@ -1725,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>2016</v>
@@ -1748,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>2017</v>
@@ -1771,7 +1759,7 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>2018</v>
@@ -1794,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>2016</v>
@@ -1817,7 +1805,7 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C54">
         <v>2017</v>
@@ -1840,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>2018</v>
@@ -1863,7 +1851,7 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <v>2016</v>
@@ -1886,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>2017</v>
@@ -1909,7 +1897,7 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>2018</v>
@@ -1932,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C59">
         <v>2016</v>
@@ -1955,7 +1943,7 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>2017</v>
@@ -1978,7 +1966,7 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>2018</v>
@@ -2001,7 +1989,7 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <v>2016</v>
@@ -2024,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>2017</v>
@@ -2047,7 +2035,7 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>2018</v>
@@ -2070,7 +2058,7 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>2016</v>
@@ -2093,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>2017</v>
@@ -2116,7 +2104,7 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>2018</v>
@@ -2139,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -2162,7 +2150,7 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>2017</v>
@@ -2185,7 +2173,7 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70">
         <v>2018</v>
@@ -2208,7 +2196,7 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C71">
         <v>2016</v>
@@ -2231,7 +2219,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>2017</v>
@@ -2254,7 +2242,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C73">
         <v>2018</v>
@@ -2277,7 +2265,7 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C74">
         <v>2016</v>
@@ -2300,7 +2288,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75">
         <v>2017</v>
@@ -2323,7 +2311,7 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C76">
         <v>2018</v>
@@ -2346,7 +2334,7 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C77">
         <v>2016</v>
@@ -2369,7 +2357,7 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78">
         <v>2017</v>
@@ -2392,7 +2380,7 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79">
         <v>2018</v>
@@ -2415,7 +2403,7 @@
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C80">
         <v>2016</v>
@@ -2438,7 +2426,7 @@
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C81">
         <v>2017</v>
@@ -2461,7 +2449,7 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C82">
         <v>2018</v>
@@ -2484,7 +2472,7 @@
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C83">
         <v>2016</v>
@@ -2507,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84">
         <v>2017</v>
@@ -2530,7 +2518,7 @@
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85">
         <v>2018</v>
@@ -2553,7 +2541,7 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C86">
         <v>2016</v>
@@ -2576,7 +2564,7 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87">
         <v>2017</v>
@@ -2599,7 +2587,7 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C88">
         <v>2018</v>
@@ -2622,7 +2610,7 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89">
         <v>2016</v>
@@ -2645,7 +2633,7 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C90">
         <v>2017</v>
@@ -2668,7 +2656,7 @@
         <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91">
         <v>2018</v>
@@ -2691,7 +2679,7 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92">
         <v>2016</v>
@@ -2714,7 +2702,7 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C93">
         <v>2017</v>
@@ -2737,7 +2725,7 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C94">
         <v>2018</v>
@@ -2760,7 +2748,7 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C95">
         <v>2016</v>
@@ -2783,7 +2771,7 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C96">
         <v>2017</v>
@@ -2806,7 +2794,7 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C97">
         <v>2018</v>
@@ -2829,7 +2817,7 @@
         <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C98">
         <v>2016</v>
@@ -2852,7 +2840,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C99">
         <v>2017</v>
@@ -2875,7 +2863,7 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C100">
         <v>2018</v>
@@ -2898,7 +2886,7 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C101">
         <v>2016</v>
@@ -2921,7 +2909,7 @@
         <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C102">
         <v>2017</v>
@@ -2944,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C103">
         <v>2018</v>
@@ -2967,7 +2955,7 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C104">
         <v>2016</v>
@@ -2990,7 +2978,7 @@
         <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C105">
         <v>2017</v>
@@ -3013,7 +3001,7 @@
         <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C106">
         <v>2018</v>
@@ -3036,7 +3024,7 @@
         <v>36</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C107">
         <v>2016</v>
@@ -3059,7 +3047,7 @@
         <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C108">
         <v>2017</v>
@@ -3082,7 +3070,7 @@
         <v>36</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C109">
         <v>2018</v>
@@ -3105,7 +3093,7 @@
         <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C110">
         <v>2016</v>
@@ -3128,7 +3116,7 @@
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C111">
         <v>2017</v>
@@ -3151,7 +3139,7 @@
         <v>37</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C112">
         <v>2018</v>
@@ -3174,7 +3162,7 @@
         <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C113">
         <v>2016</v>
@@ -3197,7 +3185,7 @@
         <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C114">
         <v>2017</v>
@@ -3220,7 +3208,7 @@
         <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C115">
         <v>2018</v>
@@ -3243,7 +3231,7 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C116">
         <v>2016</v>
@@ -3266,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C117">
         <v>2017</v>
@@ -3289,7 +3277,7 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C118">
         <v>2018</v>
@@ -3312,7 +3300,7 @@
         <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C119">
         <v>2016</v>
@@ -3335,7 +3323,7 @@
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C120">
         <v>2017</v>
@@ -3358,7 +3346,7 @@
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C121">
         <v>2018</v>
@@ -3381,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C122">
         <v>2016</v>
@@ -3404,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C123">
         <v>2017</v>
@@ -3427,7 +3415,7 @@
         <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C124">
         <v>2018</v>
@@ -3450,7 +3438,7 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C125">
         <v>2016</v>
@@ -3473,7 +3461,7 @@
         <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>2017</v>
@@ -3496,7 +3484,7 @@
         <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C127">
         <v>2018</v>
@@ -3519,7 +3507,7 @@
         <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C128">
         <v>2016</v>
@@ -3542,7 +3530,7 @@
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C129">
         <v>2017</v>
@@ -3565,7 +3553,7 @@
         <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C130">
         <v>2018</v>
@@ -3588,7 +3576,7 @@
         <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C131">
         <v>2016</v>
@@ -3611,7 +3599,7 @@
         <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -3634,7 +3622,7 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C133">
         <v>2018</v>
@@ -3657,7 +3645,7 @@
         <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C134">
         <v>2016</v>
@@ -3680,7 +3668,7 @@
         <v>44</v>
       </c>
       <c r="B135" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C135">
         <v>2017</v>
@@ -3703,7 +3691,7 @@
         <v>44</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C136">
         <v>2018</v>
@@ -3726,7 +3714,7 @@
         <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C137">
         <v>2016</v>
@@ -3749,7 +3737,7 @@
         <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C138">
         <v>2017</v>
@@ -3772,7 +3760,7 @@
         <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C139">
         <v>2018</v>
@@ -3795,7 +3783,7 @@
         <v>46</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C140">
         <v>2016</v>
@@ -3818,7 +3806,7 @@
         <v>46</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C141">
         <v>2017</v>
@@ -3841,7 +3829,7 @@
         <v>46</v>
       </c>
       <c r="B142" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C142">
         <v>2018</v>
@@ -3864,7 +3852,7 @@
         <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C143">
         <v>2016</v>
@@ -3887,7 +3875,7 @@
         <v>47</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -3910,7 +3898,7 @@
         <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C145">
         <v>2018</v>
@@ -3933,7 +3921,7 @@
         <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C146">
         <v>2016</v>
@@ -3956,7 +3944,7 @@
         <v>47</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C147">
         <v>2017</v>
@@ -3979,7 +3967,7 @@
         <v>47</v>
       </c>
       <c r="B148" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C148">
         <v>2018</v>
@@ -4002,7 +3990,7 @@
         <v>48</v>
       </c>
       <c r="B149" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C149">
         <v>2016</v>
@@ -4025,7 +4013,7 @@
         <v>48</v>
       </c>
       <c r="B150" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C150">
         <v>2017</v>
@@ -4048,7 +4036,7 @@
         <v>48</v>
       </c>
       <c r="B151" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C151">
         <v>2018</v>
@@ -4071,7 +4059,7 @@
         <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C152">
         <v>2016</v>
@@ -4094,7 +4082,7 @@
         <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C153">
         <v>2017</v>
@@ -4117,7 +4105,7 @@
         <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C154">
         <v>2018</v>
@@ -4140,7 +4128,7 @@
         <v>50</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C155">
         <v>2016</v>
@@ -4163,7 +4151,7 @@
         <v>50</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C156">
         <v>2017</v>
@@ -4186,7 +4174,7 @@
         <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C157">
         <v>2018</v>
@@ -4209,7 +4197,7 @@
         <v>51</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C158">
         <v>2016</v>
@@ -4232,7 +4220,7 @@
         <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C159">
         <v>2017</v>
@@ -4255,7 +4243,7 @@
         <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C160">
         <v>2018</v>
@@ -4278,7 +4266,7 @@
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C161">
         <v>2016</v>
@@ -4301,7 +4289,7 @@
         <v>52</v>
       </c>
       <c r="B162" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C162">
         <v>2017</v>
@@ -4324,7 +4312,7 @@
         <v>52</v>
       </c>
       <c r="B163" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C163">
         <v>2018</v>
@@ -4347,7 +4335,7 @@
         <v>53</v>
       </c>
       <c r="B164" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C164">
         <v>2016</v>
@@ -4370,7 +4358,7 @@
         <v>53</v>
       </c>
       <c r="B165" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C165">
         <v>2017</v>
@@ -4393,7 +4381,7 @@
         <v>53</v>
       </c>
       <c r="B166" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C166">
         <v>2018</v>
@@ -4416,7 +4404,7 @@
         <v>54</v>
       </c>
       <c r="B167" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C167">
         <v>2016</v>
@@ -4439,7 +4427,7 @@
         <v>54</v>
       </c>
       <c r="B168" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C168">
         <v>2017</v>
@@ -4462,7 +4450,7 @@
         <v>54</v>
       </c>
       <c r="B169" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C169">
         <v>2018</v>
@@ -4485,7 +4473,7 @@
         <v>55</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C170">
         <v>2016</v>
@@ -4508,7 +4496,7 @@
         <v>55</v>
       </c>
       <c r="B171" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C171">
         <v>2017</v>
@@ -4531,7 +4519,7 @@
         <v>55</v>
       </c>
       <c r="B172" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C172">
         <v>2018</v>
@@ -4554,7 +4542,7 @@
         <v>56</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C173">
         <v>2016</v>
@@ -4577,7 +4565,7 @@
         <v>56</v>
       </c>
       <c r="B174" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C174">
         <v>2017</v>
@@ -4600,7 +4588,7 @@
         <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C175">
         <v>2018</v>
@@ -4623,7 +4611,7 @@
         <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C176">
         <v>2016</v>
@@ -4646,7 +4634,7 @@
         <v>56</v>
       </c>
       <c r="B177" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C177">
         <v>2017</v>
@@ -4669,7 +4657,7 @@
         <v>56</v>
       </c>
       <c r="B178" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C178">
         <v>2018</v>
@@ -4692,7 +4680,7 @@
         <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C179">
         <v>2016</v>
@@ -4715,7 +4703,7 @@
         <v>57</v>
       </c>
       <c r="B180" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C180">
         <v>2017</v>
@@ -4738,7 +4726,7 @@
         <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C181">
         <v>2018</v>
@@ -4761,7 +4749,7 @@
         <v>58</v>
       </c>
       <c r="B182" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C182">
         <v>2016</v>
@@ -4784,7 +4772,7 @@
         <v>58</v>
       </c>
       <c r="B183" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C183">
         <v>2017</v>
@@ -4807,7 +4795,7 @@
         <v>58</v>
       </c>
       <c r="B184" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C184">
         <v>2018</v>
@@ -4830,7 +4818,7 @@
         <v>59</v>
       </c>
       <c r="B185" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C185">
         <v>2016</v>
@@ -4853,7 +4841,7 @@
         <v>59</v>
       </c>
       <c r="B186" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C186">
         <v>2017</v>
@@ -4876,7 +4864,7 @@
         <v>59</v>
       </c>
       <c r="B187" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C187">
         <v>2018</v>
@@ -4899,7 +4887,7 @@
         <v>60</v>
       </c>
       <c r="B188" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C188">
         <v>2016</v>
@@ -4922,7 +4910,7 @@
         <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C189">
         <v>2017</v>
@@ -4945,7 +4933,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C190">
         <v>2018</v>
@@ -4968,7 +4956,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C191">
         <v>2016</v>
@@ -4991,7 +4979,7 @@
         <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C192">
         <v>2017</v>
@@ -5014,7 +5002,7 @@
         <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C193">
         <v>2018</v>
@@ -5037,7 +5025,7 @@
         <v>61</v>
       </c>
       <c r="B194" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C194">
         <v>2016</v>
@@ -5060,7 +5048,7 @@
         <v>61</v>
       </c>
       <c r="B195" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C195">
         <v>2017</v>
@@ -5083,7 +5071,7 @@
         <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C196">
         <v>2018</v>
@@ -5106,7 +5094,7 @@
         <v>62</v>
       </c>
       <c r="B197" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C197">
         <v>2016</v>
@@ -5129,7 +5117,7 @@
         <v>62</v>
       </c>
       <c r="B198" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C198">
         <v>2017</v>
@@ -5152,7 +5140,7 @@
         <v>62</v>
       </c>
       <c r="B199" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C199">
         <v>2018</v>
@@ -5175,7 +5163,7 @@
         <v>63</v>
       </c>
       <c r="B200" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C200">
         <v>2017</v>
@@ -5198,7 +5186,7 @@
         <v>64</v>
       </c>
       <c r="B201" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C201">
         <v>2016</v>
@@ -5221,7 +5209,7 @@
         <v>64</v>
       </c>
       <c r="B202" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C202">
         <v>2017</v>
@@ -5244,7 +5232,7 @@
         <v>64</v>
       </c>
       <c r="B203" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C203">
         <v>2018</v>
@@ -5267,7 +5255,7 @@
         <v>64</v>
       </c>
       <c r="B204" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C204">
         <v>2016</v>
@@ -5290,7 +5278,7 @@
         <v>64</v>
       </c>
       <c r="B205" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C205">
         <v>2017</v>
@@ -5313,7 +5301,7 @@
         <v>64</v>
       </c>
       <c r="B206" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C206">
         <v>2018</v>
@@ -5336,7 +5324,7 @@
         <v>65</v>
       </c>
       <c r="B207" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C207">
         <v>2016</v>
@@ -5359,7 +5347,7 @@
         <v>65</v>
       </c>
       <c r="B208" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C208">
         <v>2017</v>
@@ -5374,300 +5362,6 @@
         <v>2</v>
       </c>
       <c r="G208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" t="s">
-        <v>66</v>
-      </c>
-      <c r="B209" t="s">
-        <v>71</v>
-      </c>
-      <c r="C209">
-        <v>2016</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" t="s">
-        <v>66</v>
-      </c>
-      <c r="B210" t="s">
-        <v>71</v>
-      </c>
-      <c r="C210">
-        <v>2017</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" t="s">
-        <v>66</v>
-      </c>
-      <c r="B211" t="s">
-        <v>71</v>
-      </c>
-      <c r="C211">
-        <v>2018</v>
-      </c>
-      <c r="G211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" t="s">
-        <v>67</v>
-      </c>
-      <c r="B212" t="s">
-        <v>70</v>
-      </c>
-      <c r="C212">
-        <v>2016</v>
-      </c>
-      <c r="G212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" t="s">
-        <v>67</v>
-      </c>
-      <c r="B213" t="s">
-        <v>70</v>
-      </c>
-      <c r="C213">
-        <v>2017</v>
-      </c>
-      <c r="G213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" t="s">
-        <v>67</v>
-      </c>
-      <c r="B214" t="s">
-        <v>70</v>
-      </c>
-      <c r="C214">
-        <v>2018</v>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="A215" t="s">
-        <v>63</v>
-      </c>
-      <c r="B215" t="s">
-        <v>71</v>
-      </c>
-      <c r="C215">
-        <v>2016</v>
-      </c>
-      <c r="G215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" t="s">
-        <v>63</v>
-      </c>
-      <c r="B216" t="s">
-        <v>71</v>
-      </c>
-      <c r="C216">
-        <v>2017</v>
-      </c>
-      <c r="G216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" t="s">
-        <v>63</v>
-      </c>
-      <c r="B217" t="s">
-        <v>71</v>
-      </c>
-      <c r="C217">
-        <v>2018</v>
-      </c>
-      <c r="G217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" t="s">
-        <v>63</v>
-      </c>
-      <c r="B218" t="s">
-        <v>70</v>
-      </c>
-      <c r="C218">
-        <v>2016</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" t="s">
-        <v>63</v>
-      </c>
-      <c r="B219" t="s">
-        <v>70</v>
-      </c>
-      <c r="C219">
-        <v>2018</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" t="s">
-        <v>68</v>
-      </c>
-      <c r="B220" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220">
-        <v>2016</v>
-      </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" t="s">
-        <v>68</v>
-      </c>
-      <c r="B221" t="s">
-        <v>71</v>
-      </c>
-      <c r="C221">
-        <v>2017</v>
-      </c>
-      <c r="G221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" t="s">
-        <v>68</v>
-      </c>
-      <c r="B222" t="s">
-        <v>71</v>
-      </c>
-      <c r="C222">
-        <v>2018</v>
-      </c>
-      <c r="G222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" t="s">
-        <v>68</v>
-      </c>
-      <c r="B223" t="s">
-        <v>70</v>
-      </c>
-      <c r="C223">
-        <v>2016</v>
-      </c>
-      <c r="G223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" t="s">
-        <v>68</v>
-      </c>
-      <c r="B224" t="s">
-        <v>70</v>
-      </c>
-      <c r="C224">
-        <v>2017</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" t="s">
-        <v>68</v>
-      </c>
-      <c r="B225" t="s">
-        <v>70</v>
-      </c>
-      <c r="C225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" t="s">
-        <v>65</v>
-      </c>
-      <c r="B226" t="s">
-        <v>71</v>
-      </c>
-      <c r="C226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" t="s">
-        <v>69</v>
-      </c>
-      <c r="B227" t="s">
-        <v>71</v>
-      </c>
-      <c r="C227">
-        <v>2016</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" t="s">
-        <v>69</v>
-      </c>
-      <c r="B228" t="s">
-        <v>71</v>
-      </c>
-      <c r="C228">
-        <v>2017</v>
-      </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" t="s">
-        <v>69</v>
-      </c>
-      <c r="B229" t="s">
-        <v>71</v>
-      </c>
-      <c r="C229">
-        <v>2018</v>
-      </c>
-      <c r="G229">
         <v>0</v>
       </c>
     </row>
